--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H2">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I2">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J2">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>0.8993701562120001</v>
+        <v>0.0005307345120000001</v>
       </c>
       <c r="R2">
-        <v>8.094331405908001</v>
+        <v>0.004776610608000001</v>
       </c>
       <c r="S2">
-        <v>0.005018899081050585</v>
+        <v>1.784237439163582E-05</v>
       </c>
       <c r="T2">
-        <v>0.005018899081050584</v>
+        <v>1.784237439163582E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H3">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I3">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J3">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>0.005218767478222221</v>
+        <v>0.003029497445333333</v>
       </c>
       <c r="R3">
-        <v>0.046968907304</v>
+        <v>0.027265477008</v>
       </c>
       <c r="S3">
-        <v>2.912312257611991E-05</v>
+        <v>0.0001018464532002049</v>
       </c>
       <c r="T3">
-        <v>2.91231225761199E-05</v>
+        <v>0.0001018464532002049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H4">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I4">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J4">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>0.04752464417555556</v>
+        <v>0.05344234731733335</v>
       </c>
       <c r="R4">
-        <v>0.42772179758</v>
+        <v>0.4809811258560001</v>
       </c>
       <c r="S4">
-        <v>0.000265209370504982</v>
+        <v>0.001796639087234816</v>
       </c>
       <c r="T4">
-        <v>0.0002652093705049819</v>
+        <v>0.001796639087234816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>13.206284</v>
       </c>
       <c r="I5">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J5">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>100.836568275716</v>
+        <v>0.102507176408</v>
       </c>
       <c r="R5">
-        <v>907.529114481444</v>
+        <v>0.922564587672</v>
       </c>
       <c r="S5">
-        <v>0.5627144244888533</v>
+        <v>0.003446113599073796</v>
       </c>
       <c r="T5">
-        <v>0.5627144244888532</v>
+        <v>0.003446113599073796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>13.206284</v>
       </c>
       <c r="I6">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J6">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>0.5851234883635554</v>
@@ -818,10 +818,10 @@
         <v>5.266111395272</v>
       </c>
       <c r="S6">
-        <v>0.003265258156238761</v>
+        <v>0.01967083750664875</v>
       </c>
       <c r="T6">
-        <v>0.00326525815623876</v>
+        <v>0.01967083750664875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>13.206284</v>
       </c>
       <c r="I7">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J7">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>5.32842011054889</v>
+        <v>10.32196701034489</v>
       </c>
       <c r="R7">
-        <v>47.95578099494</v>
+        <v>92.89770309310401</v>
       </c>
       <c r="S7">
-        <v>0.02973503469241362</v>
+        <v>0.3470066402176752</v>
       </c>
       <c r="T7">
-        <v>0.02973503469241361</v>
+        <v>0.3470066402176752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H8">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I8">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J8">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>67.53395761226601</v>
+        <v>0.173916000722</v>
       </c>
       <c r="R8">
-        <v>607.8056185103941</v>
+        <v>1.565244006498</v>
       </c>
       <c r="S8">
-        <v>0.3768705415215207</v>
+        <v>0.005846754502330026</v>
       </c>
       <c r="T8">
-        <v>0.3768705415215206</v>
+        <v>0.005846754502330027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H9">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I9">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J9">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>0.3918787155968889</v>
+        <v>0.992733783044222</v>
       </c>
       <c r="R9">
-        <v>3.526908440372</v>
+        <v>8.934604047397999</v>
       </c>
       <c r="S9">
-        <v>0.002186863453281959</v>
+        <v>0.03337398911849918</v>
       </c>
       <c r="T9">
-        <v>0.002186863453281959</v>
+        <v>0.03337398911849919</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H10">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I10">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J10">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>3.568638878132223</v>
+        <v>17.51248336875956</v>
       </c>
       <c r="R10">
-        <v>32.11774990319</v>
+        <v>157.612350318836</v>
       </c>
       <c r="S10">
-        <v>0.01991464611356005</v>
+        <v>0.5887393371409465</v>
       </c>
       <c r="T10">
-        <v>0.01991464611356005</v>
+        <v>0.5887393371409465</v>
       </c>
     </row>
   </sheetData>
